--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3216221.736143352</v>
+        <v>3320401.370594424</v>
       </c>
     </row>
     <row r="7">
@@ -713,13 +715,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>274.7944255145757</v>
+        <v>23.79925355567458</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -823,10 +825,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>118.6333337859371</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>239.1384001047446</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>138.8437204680931</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>336.9049854834715</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>17.25588147840217</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>37.38042722092492</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>230.198481639546</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>125.8964770521868</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>60.49300690011571</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>67.70570320578908</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1354,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1421,10 +1423,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>97.75513637220199</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.1153231220618</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,16 +1770,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.96996784159862</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>25.78734729249793</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>24.83266606353076</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6356839950563</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>91.32784210538776</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>4.974488840438739</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>125.8152577453153</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>190.5819130177805</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>40.53421095546963</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>112.1188594237458</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3092,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3187,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,10 +3246,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>273.3760014773962</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>76.94227792014335</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3670,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>189.402709992974</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>162.8435308896553</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3791,13 +3793,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3904,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>20.66101211579047</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>247.5867185477173</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>19.51567534720898</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4325,10 +4327,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4340,31 +4342,31 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
         <v>2731.767278738087</v>
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080122</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>796.8106393615039</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F4" t="n">
         <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
         <v>315.6219318279954</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1717.632440557195</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1495.865825126722</v>
       </c>
       <c r="U4" t="n">
-        <v>1494.054724415577</v>
+        <v>1495.865825126722</v>
       </c>
       <c r="V4" t="n">
-        <v>1494.054724415577</v>
+        <v>1495.865825126722</v>
       </c>
       <c r="W4" t="n">
-        <v>1494.054724415577</v>
+        <v>1206.448655089761</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>978.4591041917437</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>978.4591041917437</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4592,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3072.075344883008</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>3072.075344883008</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>3072.075344883008</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4632,46 +4634,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>214.4252100145765</v>
+        <v>646.6939999491682</v>
       </c>
       <c r="C7" t="n">
-        <v>214.4252100145765</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1909.864364776975</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1718.178480603802</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1496.411865173328</v>
+        <v>1889.536540794629</v>
       </c>
       <c r="U7" t="n">
-        <v>1207.308998298972</v>
+        <v>1600.433673920273</v>
       </c>
       <c r="V7" t="n">
-        <v>952.6245100930846</v>
+        <v>1345.749185714386</v>
       </c>
       <c r="W7" t="n">
-        <v>663.2073400561239</v>
+        <v>1056.332015677425</v>
       </c>
       <c r="X7" t="n">
-        <v>435.2177891581067</v>
+        <v>828.3424647794079</v>
       </c>
       <c r="Y7" t="n">
-        <v>214.4252100145765</v>
+        <v>828.3424647794079</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.035106955553</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C8" t="n">
-        <v>1496.072590015141</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D8" t="n">
-        <v>1137.806891408391</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>752.0186388101465</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>341.032734020539</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4805,7 +4807,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,7 +4819,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4832,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X8" t="n">
-        <v>2641.774278995486</v>
+        <v>2055.097896014972</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.634947019675</v>
+        <v>1664.958564039161</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,19 +4886,19 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>532.4548862703364</v>
+        <v>372.8549345700854</v>
       </c>
       <c r="C10" t="n">
-        <v>363.5187033424295</v>
+        <v>372.8549345700854</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>372.8549345700854</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>224.9418409876923</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>224.9418409876923</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1769.074491648254</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1547.30787621778</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1258.205009343424</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1003.520521137537</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W10" t="n">
-        <v>714.1033511005761</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X10" t="n">
-        <v>714.1033511005761</v>
+        <v>554.5033994003252</v>
       </c>
       <c r="Y10" t="n">
-        <v>714.1033511005761</v>
+        <v>554.5033994003252</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828445</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>721.7774158311365</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="C13" t="n">
-        <v>552.8412329032296</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>903.4258806613763</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5309,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5434,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>964.4894946679487</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5747,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5829,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>172.349019141113</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>555.8158034133954</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133954</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2421.879582505987</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2239.024748160891</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2019.423283183833</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1730.34805652803</v>
+        <v>1870.758369404391</v>
       </c>
       <c r="V22" t="n">
-        <v>1475.663568322143</v>
+        <v>1616.073881198504</v>
       </c>
       <c r="W22" t="n">
-        <v>1186.246398285183</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X22" t="n">
-        <v>958.2568473871653</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="Y22" t="n">
-        <v>737.4642682436352</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,13 +6001,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>1023.721406539404</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>854.7852236114971</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>704.6685841991614</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>556.7554906167683</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>409.8655431188579</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>1205.369871369644</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,22 +6305,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>409.1360811687896</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>904.4616873845483</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>636.6680198981028</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C28" t="n">
-        <v>467.7318369701959</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D28" t="n">
-        <v>317.6151975578602</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2319.876964645598</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2100.27549966854</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1811.200273012738</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1556.515784806851</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1267.09861476989</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1039.109063871873</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="Y28" t="n">
-        <v>818.3164847283425</v>
+        <v>951.7772127656159</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6454,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2104.342122433613</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1031.03282245656</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6691,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,34 +6712,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1412.248478625013</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="35">
@@ -6914,10 +6916,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6929,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913447</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>2715.159942084667</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>2715.159942084667</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>3312.538429711219</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>3905.661761784424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>709.4207169875</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>709.4207169875</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7166,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,40 +7186,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>789.7592298206043</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C40" t="n">
-        <v>620.8230468926974</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D40" t="n">
-        <v>470.7064074803617</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>2005.746676807796</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1716.671450151994</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1461.986961946107</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y40" t="n">
-        <v>971.4076946508441</v>
+        <v>951.7772127656159</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,13 +7423,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7497,19 +7499,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>552.8412329032296</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>552.8412329032296</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.093374372392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.238540027296</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1727.373486017864</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1472.688997811978</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1183.271827775017</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>955.2822768769995</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>734.4896977334694</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>172.349019141113</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2222.001901828445</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>337.3280009388793</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
   </sheetData>
@@ -9656,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>-1.72899517246124e-13</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>82.07684380973531</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>205.6146855104962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>199.9223080965392</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.54258064659092</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>180.5487903941878</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>74.19629618688109</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>220.7351665485984</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>55.21102825632927</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>35.12774237125663</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>99.76050189075423</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>113.5907959652914</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25132,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>13.14699685919481</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>69.49168472642582</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25558,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>28.0027403343143</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>55.74112246243948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>45.71423459433119</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>38.5977558415268</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>146.0084629450599</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>698883.4330017639</v>
+        <v>698883.433001764</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>698883.4330017639</v>
+        <v>698883.433001764</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>698883.4330017639</v>
+        <v>698883.433001764</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="C2" t="n">
+        <v>738937.5928778558</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778551</v>
       </c>
-      <c r="D2" t="n">
-        <v>738937.5928778552</v>
-      </c>
       <c r="E2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="G2" t="n">
         <v>726431.9397210055</v>
-      </c>
-      <c r="G2" t="n">
-        <v>726431.9397210054</v>
       </c>
       <c r="H2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="I2" t="n">
+        <v>726431.9397210057</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="K2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="J2" t="n">
-        <v>726431.9397210057</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="M2" t="n">
-        <v>726431.9397210054</v>
-      </c>
       <c r="N2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319408</v>
+        <v>92793.84288319405</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.842883194</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184271</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184274</v>
@@ -26454,10 +26456,10 @@
         <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-790534.9362943248</v>
+        <v>-790534.9362943247</v>
       </c>
       <c r="C6" t="n">
+        <v>538209.8094332685</v>
+      </c>
+      <c r="D6" t="n">
         <v>538209.8094332678</v>
-      </c>
-      <c r="D6" t="n">
-        <v>538209.8094332679</v>
       </c>
       <c r="E6" t="n">
         <v>286290.1399779004</v>
       </c>
       <c r="F6" t="n">
+        <v>611702.6017852555</v>
+      </c>
+      <c r="G6" t="n">
         <v>611702.6017852557</v>
-      </c>
-      <c r="G6" t="n">
-        <v>611702.6017852556</v>
       </c>
       <c r="H6" t="n">
         <v>611702.6017852554</v>
       </c>
       <c r="I6" t="n">
+        <v>611702.6017852559</v>
+      </c>
+      <c r="J6" t="n">
+        <v>394171.3993879782</v>
+      </c>
+      <c r="K6" t="n">
         <v>611702.6017852555</v>
       </c>
-      <c r="J6" t="n">
-        <v>394171.3993879785</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>611702.6017852556</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>526647.5738497435</v>
+      </c>
+      <c r="N6" t="n">
+        <v>611702.6017852555</v>
+      </c>
+      <c r="O6" t="n">
         <v>611702.6017852554</v>
       </c>
-      <c r="M6" t="n">
-        <v>526647.5738497438</v>
-      </c>
-      <c r="N6" t="n">
-        <v>611702.6017852556</v>
-      </c>
-      <c r="O6" t="n">
-        <v>611702.6017852556</v>
-      </c>
       <c r="P6" t="n">
-        <v>611702.6017852556</v>
+        <v>611702.6017852555</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26817,10 +26819,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27433,13 +27435,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>74.44654320283729</v>
+        <v>325.4417151617384</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27543,10 +27545,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>71.1356915455048</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>47.07343810086832</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>243.8901211953875</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>49.33295317258205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>71.67627119164516</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>182.1685220552443</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>180.7232440139074</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27906,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>243.8346236262822</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>105.5328013589125</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>122.0633221256528</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31838,28 +31840,28 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31996,34 +31998,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>453.7122424932249</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.1625787491746</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32233,34 +32235,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>435.9638754389779</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32470,34 +32472,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>206.1632388819608</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>213.1625787491746</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,13 +32779,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,34 +32794,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>439.2440297647763</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>213.1625787491746</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>543.0832917018706</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>351.608251103502</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>399.190220890813</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33657,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>730.4561889249549</v>
       </c>
       <c r="O36" t="n">
-        <v>574.6535388222619</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669205</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>483.3274636075158</v>
       </c>
       <c r="P39" t="n">
-        <v>431.3680753731354</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>409.0029787211721</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>204.3779992811859</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>322.3705304098916</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>25.73094315394599</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>293.3676309945334</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36442,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>228.3679864663302</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>217.6338436891718</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>261.348781916454</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37394,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>599.1144768416216</v>
       </c>
       <c r="O36" t="n">
-        <v>432.0572943778175</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492471</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>340.7312191630714</v>
       </c>
       <c r="P39" t="n">
-        <v>297.3936679588052</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>266.8689447991538</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>77.54037261451919</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3320401.370594424</v>
+        <v>3316388.760580432</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>91.44574675721751</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>23.79925355567458</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734102899</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -825,10 +825,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>118.6333337859371</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>135.259425062653</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>138.8437204680931</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>120.6088074159616</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1059,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>37.38042722092492</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>52.47750671193565</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>125.8964770521868</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>63.10873435712737</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>60.49300690011571</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.75513637220199</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576182</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701373</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176199</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>25.78734729249793</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>20.43112068613243</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>105.6356839950563</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>91.32784210538776</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428253</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>81.27859867330146</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>190.5819130177805</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>21.63824106825043</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>40.53421095546963</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>41.74133133758806</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,10 +3246,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>273.3760014773962</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3274,13 +3274,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>76.94227792014335</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673027</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>189.402709992974</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282045</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.66101211579047</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>19.51567534720898</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310427</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>909.4479615424616</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>498.462056752854</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4333,7 +4333,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4366,16 +4366,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2731.767278738087</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2731.767278738087</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986295</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>796.8106393615039</v>
+        <v>2489.924953962485</v>
       </c>
       <c r="C4" t="n">
-        <v>627.8744564335971</v>
+        <v>2320.988771034578</v>
       </c>
       <c r="D4" t="n">
-        <v>477.7578170212613</v>
+        <v>2170.872131622243</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>2022.95903803985</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.632440557195</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T4" t="n">
-        <v>1495.865825126722</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U4" t="n">
-        <v>1495.865825126722</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V4" t="n">
-        <v>1495.865825126722</v>
+        <v>3188.980139727703</v>
       </c>
       <c r="W4" t="n">
-        <v>1206.448655089761</v>
+        <v>2899.562969690743</v>
       </c>
       <c r="X4" t="n">
-        <v>978.4591041917437</v>
+        <v>2671.573418792725</v>
       </c>
       <c r="Y4" t="n">
-        <v>978.4591041917437</v>
+        <v>2671.573418792725</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1168.124113652745</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C5" t="n">
-        <v>1168.124113652745</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D5" t="n">
-        <v>809.8584150459947</v>
+        <v>985.1133520179762</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>599.3250994197319</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>188.3391946301244</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>646.6939999491682</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>477.7578170212613</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4755,22 +4755,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1889.536540794629</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1600.433673920273</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V7" t="n">
-        <v>1345.749185714386</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W7" t="n">
-        <v>1056.332015677425</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X7" t="n">
-        <v>828.3424647794079</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>828.3424647794079</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1278.358723975039</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="C8" t="n">
-        <v>1278.358723975039</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3272.598239071861</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3066.620491456084</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3066.620491456084</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>2735.557604112513</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653545</v>
+        <v>2382.788948842398</v>
       </c>
       <c r="X8" t="n">
-        <v>2055.097896014972</v>
+        <v>2009.323190581319</v>
       </c>
       <c r="Y8" t="n">
-        <v>1664.958564039161</v>
+        <v>1619.183858605507</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.8549345700854</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>372.8549345700854</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>372.8549345700854</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>224.9418409876923</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>224.9418409876923</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335303</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>782.4929502983425</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>554.5033994003252</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>554.5033994003252</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5026,28 +5026,28 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5062,16 +5062,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466572</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,58 +5266,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,13 +5454,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
@@ -5478,10 +5478,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014782</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355941</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>782.841029837709</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,34 +5691,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1185.282073811479</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>964.4894946679487</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5728,55 +5728,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J21" t="n">
-        <v>172.349019141113</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K21" t="n">
-        <v>506.2737913123336</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L21" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>196.5408620426163</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5919,7 +5919,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5928,13 +5928,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487568</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1870.758369404391</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.073881198504</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1326.656711161544</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1098.667160263526</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5968,61 +5968,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L24" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1023.721406539404</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C25" t="n">
-        <v>854.7852236114971</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D25" t="n">
-        <v>704.6685841991614</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E25" t="n">
-        <v>556.7554906167683</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F25" t="n">
-        <v>409.8655431188579</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6156,7 +6156,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
@@ -6165,13 +6165,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487568</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369644</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y25" t="n">
-        <v>1205.369871369644</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O27" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.7772127656159</v>
+        <v>762.5477693179095</v>
       </c>
       <c r="C28" t="n">
-        <v>782.841029837709</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253733</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6393,7 +6393,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6402,34 +6402,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X28" t="n">
-        <v>951.7772127656159</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y28" t="n">
-        <v>951.7772127656159</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6460,31 +6460,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>924.8344286397185</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1552.432392194325</v>
+        <v>1767.889897446605</v>
       </c>
       <c r="O30" t="n">
-        <v>2104.342122433613</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400717</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D31" t="n">
-        <v>363.7369613277359</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E31" t="n">
-        <v>363.7369613277359</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>216.8470138298256</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>216.8470138298256</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6630,7 +6630,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
@@ -6639,34 +6639,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>352.5519571452613</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>781.8178837532263</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532263</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408905</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6867,7 +6867,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
@@ -6876,34 +6876,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854707</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W34" t="n">
-        <v>1412.248478625013</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X34" t="n">
-        <v>1184.258927726996</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y34" t="n">
-        <v>963.466348583466</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075811</v>
@@ -6946,43 +6946,43 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913447</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K36" t="n">
-        <v>2715.159942084667</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L36" t="n">
-        <v>2715.159942084667</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M36" t="n">
-        <v>3312.538429711219</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N36" t="n">
-        <v>3905.661761784424</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O36" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>878.3568999154069</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>709.4207169875</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>709.4207169875</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7104,7 +7104,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
@@ -7113,34 +7113,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7162,64 +7162,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1522.21291626627</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.7772127656159</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>782.841029837709</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253733</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
@@ -7350,34 +7350,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T40" t="n">
-        <v>2005.746676807796</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U40" t="n">
-        <v>1716.671450151994</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1461.986961946107</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1172.569791909146</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>1172.569791909146</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>951.7772127656159</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7587,34 +7587,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2426.093374372392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2243.238540027296</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2023.637075050237</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1734.561848394435</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1479.877360188548</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1190.460190151587</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1190.460190151587</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>969.6676110080573</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="44">
@@ -7636,37 +7636,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>172.349019141113</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>506.2737913123336</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L45" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.2707707770323</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C46" t="n">
-        <v>634.3345878491255</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D46" t="n">
-        <v>484.2179484367897</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E46" t="n">
-        <v>484.2179484367897</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F46" t="n">
-        <v>337.3280009388793</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578601</v>
@@ -7815,7 +7815,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570818</v>
@@ -7824,34 +7824,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.70136564882</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.711814750802</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.9192356072721</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
   </sheetData>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>-1.72899517246124e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.07684380973531</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>121.5862749664504</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>199.9223080965392</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>119.8635921600914</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>180.5487903941878</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>74.19629618688109</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194133</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>85.96822242532637</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>35.12774237125663</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>145.6085800303774</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>99.76050189075423</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>125.5054897610398</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>13.14699685919481</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>69.49168472642582</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194143</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>28.0027403343143</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>125.5054897610396</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>45.71423459433119</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>146.0084629450599</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>166.039752924184</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>698883.433001764</v>
+        <v>698883.4330017639</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>698883.4330017639</v>
+        <v>698883.433001764</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>698883.433001764</v>
+        <v>698883.4330017639</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>698883.433001764</v>
+        <v>698883.4330017639</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>698883.4330017639</v>
+        <v>698883.433001764</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778558</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778558</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="G2" t="n">
         <v>726431.9397210055</v>
@@ -26334,10 +26334,10 @@
         <v>726431.9397210052</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210057</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="K2" t="n">
         <v>726431.9397210053</v>
@@ -26346,16 +26346,16 @@
         <v>726431.9397210054</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.751717940758681e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551199</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319403</v>
       </c>
       <c r="C4" t="n">
         <v>92793.84288319401</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
+        <v>13606.80811184265</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13606.80811184264</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13606.80811184264</v>
+      </c>
+      <c r="I4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
+        <v>13606.80811184269</v>
+      </c>
+      <c r="K4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184271</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
+        <v>13606.80811184265</v>
+      </c>
+      <c r="N4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="N4" t="n">
-        <v>13606.80811184274</v>
-      </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184275</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26502,7 +26502,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-790534.9362943247</v>
+        <v>-790534.9362943243</v>
       </c>
       <c r="C6" t="n">
-        <v>538209.8094332685</v>
+        <v>538209.8094332682</v>
       </c>
       <c r="D6" t="n">
-        <v>538209.8094332678</v>
+        <v>538209.8094332682</v>
       </c>
       <c r="E6" t="n">
-        <v>286290.1399779004</v>
+        <v>285942.7607235429</v>
       </c>
       <c r="F6" t="n">
-        <v>611702.6017852555</v>
+        <v>611355.2225308984</v>
       </c>
       <c r="G6" t="n">
-        <v>611702.6017852557</v>
+        <v>611355.2225308989</v>
       </c>
       <c r="H6" t="n">
-        <v>611702.6017852554</v>
+        <v>611355.2225308984</v>
       </c>
       <c r="I6" t="n">
-        <v>611702.6017852559</v>
+        <v>611355.2225308985</v>
       </c>
       <c r="J6" t="n">
-        <v>394171.3993879782</v>
+        <v>393824.0201336212</v>
       </c>
       <c r="K6" t="n">
-        <v>611702.6017852555</v>
+        <v>611355.2225308984</v>
       </c>
       <c r="L6" t="n">
-        <v>611702.6017852556</v>
+        <v>611355.2225308986</v>
       </c>
       <c r="M6" t="n">
-        <v>526647.5738497435</v>
+        <v>526300.1945953866</v>
       </c>
       <c r="N6" t="n">
-        <v>611702.6017852555</v>
+        <v>611355.2225308986</v>
       </c>
       <c r="O6" t="n">
-        <v>611702.6017852554</v>
+        <v>611355.2225308986</v>
       </c>
       <c r="P6" t="n">
-        <v>611702.6017852555</v>
+        <v>611355.2225308986</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.4473118155576e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.4473118155576e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>319.4759788962359</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>325.4417151617384</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27545,10 +27545,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>71.1356915455048</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>116.878218261175</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>243.8901211953875</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>290.3129182374919</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,10 +27827,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>182.1685220552443</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>56.71025507624019</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>243.8346236262822</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>83.3252282894418</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>105.5328013589125</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.83767850099729e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-2.041177940518983e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-2.363549356232398e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,37 +32074,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>453.7122424932249</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,37 +32311,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32505,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,28 +32548,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>206.1632388819608</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>301.644515672455</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
@@ -32578,7 +32578,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32645,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,40 +32700,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32742,7 +32742,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32791,31 +32791,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>439.2440297647763</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32882,7 +32882,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,40 +32937,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32979,7 +32979,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,28 +33022,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P27" t="n">
-        <v>543.0832917018706</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,7 +33052,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33119,7 +33119,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817556</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33216,7 +33216,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,25 +33262,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>228.3420541567475</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P30" t="n">
-        <v>351.608251103502</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.5996128485291</v>
@@ -33289,7 +33289,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33356,7 +33356,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,40 +33411,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33453,7 +33453,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,28 +33496,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>399.190220890813</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,7 +33526,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33593,7 +33593,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33690,7 +33690,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,37 +33733,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>730.4561889249549</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33830,7 +33830,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669205</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33927,7 +33927,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,34 +33973,34 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>483.3274636075158</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34067,7 +34067,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,40 +34122,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34164,7 +34164,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,37 +34207,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P42" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34304,7 +34304,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,40 +34359,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162548</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669205</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34401,7 +34401,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,34 +34447,34 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>204.3779992811859</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34541,7 +34541,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>322.3705304098916</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>79.32561221529411</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>159.0482712280106</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36290,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924719</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902405</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>300.6896499849021</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36527,7 +36527,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060455</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P27" t="n">
-        <v>409.1088842875403</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36764,7 +36764,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036775</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>97.00034207341417</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P30" t="n">
-        <v>217.6338436891718</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625076</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -37001,7 +37001,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>261.348781916454</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37238,7 +37238,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>599.1144768416216</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37475,7 +37475,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492471</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>340.7312191630714</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37712,7 +37712,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P42" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37949,7 +37949,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492471</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902405</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>77.54037261451919</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
@@ -38186,7 +38186,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060455</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3316388.760580432</v>
+        <v>3318149.290883217</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>91.44574675721751</v>
+        <v>104.4484877422294</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>135.259425062653</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>120.6088074159616</v>
+        <v>276.3457167073708</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>52.47750671193565</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>51.94945239588907</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>63.10873435712737</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>82.70057996958639</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187862</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174122</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576182</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428251</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701373</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>27.02919805176199</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695709</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>20.43112068613243</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428253</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>81.27859867330146</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>21.63824106825043</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>41.74133133758806</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187887</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>160.6789846282045</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428257</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>161.1739971048551</v>
       </c>
       <c r="T46" t="n">
-        <v>51.36569740310427</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1295.236214140706</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C2" t="n">
-        <v>1295.236214140706</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D2" t="n">
-        <v>1295.236214140706</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="E2" t="n">
-        <v>909.4479615424616</v>
+        <v>922.582043345504</v>
       </c>
       <c r="F2" t="n">
-        <v>498.462056752854</v>
+        <v>511.5961385558964</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4327,31 +4327,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204828</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986295</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2489.924953962485</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>2320.988771034578</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.872131622243</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.95903803985</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541939</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>3188.980139727703</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>2899.562969690743</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>2671.573418792725</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>2671.573418792725</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1712.341567565138</v>
+        <v>2209.232076102164</v>
       </c>
       <c r="C5" t="n">
-        <v>1343.379050624727</v>
+        <v>1840.269559161753</v>
       </c>
       <c r="D5" t="n">
-        <v>985.1133520179762</v>
+        <v>1482.003860555002</v>
       </c>
       <c r="E5" t="n">
-        <v>599.3250994197319</v>
+        <v>1096.215607956758</v>
       </c>
       <c r="F5" t="n">
-        <v>188.3391946301244</v>
+        <v>685.2297031671503</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866152</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605072</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.94140762926</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4707,22 +4707,22 @@
         <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E7" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.584018541385</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678286</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3272.598239071861</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3066.620491456084</v>
+        <v>3273.13162726989</v>
       </c>
       <c r="U8" t="n">
-        <v>3066.620491456084</v>
+        <v>3019.601150543726</v>
       </c>
       <c r="V8" t="n">
-        <v>2735.557604112513</v>
+        <v>2688.538263200155</v>
       </c>
       <c r="W8" t="n">
-        <v>2382.788948842398</v>
+        <v>2335.769607930041</v>
       </c>
       <c r="X8" t="n">
-        <v>2009.323190581319</v>
+        <v>1962.303849668961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1619.183858605507</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4947,19 +4947,19 @@
         <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
@@ -5029,49 +5029,49 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466572</v>
@@ -5080,13 +5080,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5290,37 +5290,37 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355941</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,61 +5728,61 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466572</v>
@@ -5791,13 +5791,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.07903472198</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>363.7369613277364</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>363.7369613277364</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>363.7369613277364</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>196.5408620426163</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,34 +5968,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6007,22 +6007,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179095</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235166</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258107</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602305</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396418</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359457</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614396</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179095</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6554,7 +6554,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446605</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
         <v>2319.799627685893</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876697</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>559.0424953278208</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235166</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258107</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602305</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396418</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359457</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614396</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179095</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876697</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235166</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258107</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602305</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396418</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359457</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614396</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179095</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.55866301478</v>
@@ -6952,37 +6952,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7332,37 +7332,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
         <v>1882.204779583153</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192383</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111695</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,37 +7636,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2217.115362555031</v>
       </c>
       <c r="T46" t="n">
-        <v>2395.078540748843</v>
+        <v>1997.513897577973</v>
       </c>
       <c r="U46" t="n">
-        <v>2106.003314093041</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="V46" t="n">
-        <v>1851.318825887154</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="W46" t="n">
-        <v>1561.901655850193</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X46" t="n">
-        <v>1333.912104952176</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.119525808646</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194134</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>121.5862749664504</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>119.8635921600914</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194133</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>85.96822242532637</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>145.6085800303774</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>125.5054897610398</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>125.5054897610396</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>19.8522888967895</v>
       </c>
       <c r="T46" t="n">
-        <v>166.039752924184</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>698883.433001764</v>
+        <v>698883.4330017639</v>
       </c>
     </row>
     <row r="9">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>698883.433001764</v>
+        <v>698883.4330017639</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778558</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="K2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="L2" t="n">
-        <v>726431.9397210054</v>
-      </c>
       <c r="M2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210055</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210056</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>3.751717940758681e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>92793.84288319401</v>
+      </c>
+      <c r="C4" t="n">
+        <v>92793.84288319405</v>
+      </c>
+      <c r="D4" t="n">
         <v>92793.84288319403</v>
       </c>
-      <c r="C4" t="n">
-        <v>92793.84288319401</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92793.84288319407</v>
-      </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184278</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184265</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184264</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184264</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184269</v>
+        <v>13606.80811184281</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184265</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26502,7 +26502,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-790534.9362943243</v>
+        <v>-790534.9362943245</v>
       </c>
       <c r="C6" t="n">
         <v>538209.8094332682</v>
@@ -26530,40 +26530,40 @@
         <v>538209.8094332682</v>
       </c>
       <c r="E6" t="n">
-        <v>285942.7607235429</v>
+        <v>286255.4020524647</v>
       </c>
       <c r="F6" t="n">
-        <v>611355.2225308984</v>
+        <v>611667.8638598198</v>
       </c>
       <c r="G6" t="n">
-        <v>611355.2225308989</v>
+        <v>611667.8638598198</v>
       </c>
       <c r="H6" t="n">
-        <v>611355.2225308984</v>
+        <v>611667.8638598198</v>
       </c>
       <c r="I6" t="n">
-        <v>611355.2225308985</v>
+        <v>611667.8638598198</v>
       </c>
       <c r="J6" t="n">
-        <v>393824.0201336212</v>
+        <v>394136.6614625422</v>
       </c>
       <c r="K6" t="n">
-        <v>611355.2225308984</v>
+        <v>611667.8638598196</v>
       </c>
       <c r="L6" t="n">
-        <v>611355.2225308986</v>
+        <v>611667.8638598198</v>
       </c>
       <c r="M6" t="n">
-        <v>526300.1945953866</v>
+        <v>526612.8359243082</v>
       </c>
       <c r="N6" t="n">
-        <v>611355.2225308986</v>
+        <v>611667.8638598201</v>
       </c>
       <c r="O6" t="n">
-        <v>611355.2225308986</v>
+        <v>611667.8638598198</v>
       </c>
       <c r="P6" t="n">
-        <v>611355.2225308986</v>
+        <v>611667.8638598202</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,40 +26789,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.4473118155576e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.4473118155576e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>319.4759788962359</v>
+        <v>306.473237911224</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,16 +27596,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>116.878218261175</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>290.3129182374919</v>
+        <v>134.5760089460827</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>56.71025507624019</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>151.9685177437311</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>83.3252282894418</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>83.32522828944184</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>8.769894134013742e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.83767850099729e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-2.041177940518983e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-2.363549356232398e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31603,7 +31603,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>398.7616643558013</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>301.644515672455</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817556</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>228.3420541567475</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669205</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>256.1654199113569</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>159.0482712280106</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036775</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>97.00034207341417</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
